--- a/biology/Zoologie/Isaberrysaura/Isaberrysaura.xlsx
+++ b/biology/Zoologie/Isaberrysaura/Isaberrysaura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isaberrysaura mollensis
 Isaberrysaura est un  genre éteint de dinosaure ornithischien du Jurassique moyen d'Argentine.
-Ce genre contient une espèce unique, Isaberrysaura mollensis, connue par un spécimen fossile découvert en Patagonie (Argentine), dans la formation géologique de Los Molles, datée du Bajocien inférieur, de la zone à ammonites à Sonninia altecostata, soit il y a environ 170 millions d'années[1].
+Ce genre contient une espèce unique, Isaberrysaura mollensis, connue par un spécimen fossile découvert en Patagonie (Argentine), dans la formation géologique de Los Molles, datée du Bajocien inférieur, de la zone à ammonites à Sonninia altecostata, soit il y a environ 170 millions d'années.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Isaberrysaura a été créé en l'honneur d’Isabel Valdivia Berry qui a découvert le matériel holotype[1].
-Son nom spécifique, composé de moll[es] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Los Molles dans la province de Neuquén en Argentine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Isaberrysaura a été créé en l'honneur d’Isabel Valdivia Berry qui a découvert le matériel holotype.
+Son nom spécifique, composé de moll[es] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Los Molles dans la province de Neuquén en Argentine.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Leonardo Salgado, José Ignacio Canudo, Alberto C. Garrido, Miguel Moreno-Azanza, Leandro C A Martínez, Rodolfo Coria et José Manuel Gasca, « A new primitive Neornithischian dinosaur from the Jurassic of Patagonia with gut contents », Scientific Reports, Macmillan Publishers et NPG, vol. 7,‎ 16 février 2017, p. 42778 (ISSN 2045-2322, OCLC 732869387, PMID 28202910, PMCID 5311864, DOI 10.1038/SREP42778, lire en ligne)</t>
         </is>
